--- a/phone_numbers.xlsx
+++ b/phone_numbers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="468">
   <si>
     <t>Name</t>
   </si>
@@ -1349,6 +1349,72 @@
   </si>
   <si>
     <t>01278661276</t>
+  </si>
+  <si>
+    <t>سجدة احمد فتحي</t>
+  </si>
+  <si>
+    <t>01001896442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد محمود علي </t>
+  </si>
+  <si>
+    <t>01224576810</t>
+  </si>
+  <si>
+    <t>لارين محمد عبد النبي</t>
+  </si>
+  <si>
+    <t>01120758333</t>
+  </si>
+  <si>
+    <t>زياد امين امام احمد</t>
+  </si>
+  <si>
+    <t>01067710903</t>
+  </si>
+  <si>
+    <t>مهاب احمد علي</t>
+  </si>
+  <si>
+    <t>01010019738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد رشاد ثابت </t>
+  </si>
+  <si>
+    <t>01065024525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اياد تامر فريد </t>
+  </si>
+  <si>
+    <t>01285896352</t>
+  </si>
+  <si>
+    <t>ريتال محمد حسين</t>
+  </si>
+  <si>
+    <t>01550860007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ياسين محمد شوقي </t>
+  </si>
+  <si>
+    <t>01004656050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يحيي محمد حسن </t>
+  </si>
+  <si>
+    <t>01225816719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بلال احمد طه </t>
+  </si>
+  <si>
+    <t>01094174165</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C321"/>
+  <dimension ref="A1:C341"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -4198,10 +4264,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B225" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4209,13 +4275,13 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B226" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C226" t="s">
-        <v>5</v>
+        <v>328</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -4231,21 +4297,21 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B228" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C228" t="s">
-        <v>328</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B229" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4275,10 +4341,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B232" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4286,24 +4352,24 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B233" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C233" t="s">
-        <v>5</v>
+        <v>337</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B234" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C234" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -4319,10 +4385,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B236" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4341,10 +4407,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B238" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4352,10 +4418,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B239" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4385,10 +4451,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B242" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4407,13 +4473,13 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B244" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C244" t="s">
-        <v>5</v>
+        <v>350</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -4429,13 +4495,13 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B246" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C246" t="s">
-        <v>350</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -4451,10 +4517,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B248" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4473,10 +4539,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B250" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4495,10 +4561,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B252" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4506,10 +4572,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B253" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4517,10 +4583,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B254" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4528,10 +4594,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B255" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4550,10 +4616,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B257" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4572,43 +4638,43 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B259" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C259" t="s">
-        <v>5</v>
+        <v>369</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B260" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C260" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B261" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C261" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B262" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4638,10 +4704,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B265" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4660,10 +4726,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B267" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4693,10 +4759,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B270" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4715,10 +4781,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B272" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4737,10 +4803,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B274" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4759,13 +4825,13 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B276" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C276" t="s">
-        <v>5</v>
+        <v>389</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -4781,13 +4847,13 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B278" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C278" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -4803,13 +4869,13 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B280" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C280" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -4825,13 +4891,13 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B282" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C282" t="s">
-        <v>395</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -4847,13 +4913,13 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B284" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C284" t="s">
-        <v>5</v>
+        <v>400</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -4880,13 +4946,13 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B287" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C287" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -4913,13 +4979,13 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B290" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C290" t="s">
-        <v>403</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -4935,10 +5001,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B292" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4946,10 +5012,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B293" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4957,10 +5023,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B294" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -4979,24 +5045,24 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B296" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C296" t="s">
-        <v>5</v>
+        <v>414</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B297" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C297" t="s">
-        <v>414</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -5012,10 +5078,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B299" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5045,10 +5111,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B302" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5078,13 +5144,13 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B305" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C305" t="s">
-        <v>5</v>
+        <v>423</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -5100,35 +5166,35 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B307" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C307" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B308" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C308" t="s">
-        <v>426</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B309" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C309" t="s">
-        <v>5</v>
+        <v>431</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -5144,13 +5210,13 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B311" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C311" t="s">
-        <v>431</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -5166,10 +5232,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B313" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5177,10 +5243,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B314" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5188,10 +5254,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B315" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5199,10 +5265,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B316" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5210,10 +5276,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B317" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5232,10 +5298,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B319" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5254,12 +5320,232 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B321" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>448</v>
+      </c>
+      <c r="B322" t="s">
+        <v>449</v>
+      </c>
+      <c r="C322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>448</v>
+      </c>
+      <c r="B323" t="s">
+        <v>449</v>
+      </c>
+      <c r="C323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>450</v>
+      </c>
+      <c r="B324" t="s">
+        <v>451</v>
+      </c>
+      <c r="C324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>450</v>
+      </c>
+      <c r="B325" t="s">
+        <v>451</v>
+      </c>
+      <c r="C325" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>452</v>
+      </c>
+      <c r="B326" t="s">
+        <v>453</v>
+      </c>
+      <c r="C326" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>454</v>
+      </c>
+      <c r="B327" t="s">
+        <v>455</v>
+      </c>
+      <c r="C327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>454</v>
+      </c>
+      <c r="B328" t="s">
+        <v>455</v>
+      </c>
+      <c r="C328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>456</v>
+      </c>
+      <c r="B329" t="s">
+        <v>457</v>
+      </c>
+      <c r="C329" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>456</v>
+      </c>
+      <c r="B330" t="s">
+        <v>457</v>
+      </c>
+      <c r="C330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>456</v>
+      </c>
+      <c r="B331" t="s">
+        <v>457</v>
+      </c>
+      <c r="C331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>458</v>
+      </c>
+      <c r="B332" t="s">
+        <v>459</v>
+      </c>
+      <c r="C332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>458</v>
+      </c>
+      <c r="B333" t="s">
+        <v>459</v>
+      </c>
+      <c r="C333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>458</v>
+      </c>
+      <c r="B334" t="s">
+        <v>459</v>
+      </c>
+      <c r="C334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>460</v>
+      </c>
+      <c r="B335" t="s">
+        <v>461</v>
+      </c>
+      <c r="C335" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>460</v>
+      </c>
+      <c r="B336" t="s">
+        <v>461</v>
+      </c>
+      <c r="C336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>462</v>
+      </c>
+      <c r="B337" t="s">
+        <v>463</v>
+      </c>
+      <c r="C337" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>464</v>
+      </c>
+      <c r="B338" t="s">
+        <v>465</v>
+      </c>
+      <c r="C338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>464</v>
+      </c>
+      <c r="B339" t="s">
+        <v>465</v>
+      </c>
+      <c r="C339" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>466</v>
+      </c>
+      <c r="B340" t="s">
+        <v>467</v>
+      </c>
+      <c r="C340" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>466</v>
+      </c>
+      <c r="B341" t="s">
+        <v>467</v>
+      </c>
+      <c r="C341" t="s">
         <v>5</v>
       </c>
     </row>
